--- a/Data/EC/NIT-9009460005.xlsx
+++ b/Data/EC/NIT-9009460005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FD0B9FB-CA5F-4A3E-BD87-E366B0CDBE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{687941E7-91EA-4B0E-B886-591E120A0D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2105C40C-265D-4EB0-82E7-B9A2A3AECDCC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70FF32D1-1416-4EDA-B9DD-E7D4B86090C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,30 +74,60 @@
     <t>2103</t>
   </si>
   <si>
+    <t>73129242</t>
+  </si>
+  <si>
+    <t>ALIRIO TORRES BERDUGO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>73007464</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS VILLALBA VIZCAINO</t>
+  </si>
+  <si>
+    <t>1143348656</t>
+  </si>
+  <si>
+    <t>MANUEL YESID ALEMAN MENDOZA</t>
+  </si>
+  <si>
+    <t>1143364340</t>
+  </si>
+  <si>
+    <t>ALBERTO JOSE SUAREZ PADILLA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>1047428298</t>
   </si>
   <si>
     <t>ALVARO ANDRES MIRANDA PADILLA</t>
   </si>
   <si>
+    <t>1047494448</t>
+  </si>
+  <si>
+    <t>REMBERTO JOSE MEDRANO ATENCIO</t>
+  </si>
+  <si>
     <t>1143398514</t>
   </si>
   <si>
     <t>HERNAN JOSE JIMENEZ MONTERO</t>
   </si>
   <si>
-    <t>1143348656</t>
-  </si>
-  <si>
-    <t>MANUEL YESID ALEMAN MENDOZA</t>
-  </si>
-  <si>
-    <t>73007464</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS VILLALBA VIZCAINO</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -107,73 +137,64 @@
     <t>GUSTAVO ENRIQUE JIMÃ?NEZ MI</t>
   </si>
   <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -217,7 +238,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55B9434-FF49-3CE9-C644-FF3E462E0C48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AECFF1-26D1-0025-5B21-41CD15336514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,32 +959,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0666E8CB-68DB-4E61-B0A1-A2E46E735247}">
-  <dimension ref="B2:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF1898-9F3C-42EA-8D91-644F8401589B}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +993,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -983,7 +1004,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -994,7 +1015,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1005,10 +1026,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1021,8 +1042,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1037,15 +1058,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1193940</v>
+        <v>1782780</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1053,27 +1074,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1093,16 +1114,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1146,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1136,42 +1157,42 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>15748</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>15748</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1800000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1188,13 +1209,13 @@
         <v>15748</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1211,231 +1232,231 @@
         <v>15748</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F21" s="18">
-        <v>32800</v>
+        <v>66000</v>
       </c>
       <c r="G21" s="18">
-        <v>1230000</v>
+        <v>1800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>49200</v>
+        <v>66000</v>
       </c>
       <c r="G22" s="18">
-        <v>1230000</v>
+        <v>1800000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
-        <v>49200</v>
+        <v>66000</v>
       </c>
       <c r="G23" s="18">
-        <v>1230000</v>
+        <v>1800000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
-        <v>49200</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>1230000</v>
+        <v>1115000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
-        <v>49200</v>
+        <v>56940</v>
       </c>
       <c r="G25" s="18">
-        <v>1230000</v>
+        <v>1115000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>49200</v>
+        <v>15748</v>
       </c>
       <c r="G26" s="18">
-        <v>1230000</v>
+        <v>1115000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>49200</v>
+        <v>56940</v>
       </c>
       <c r="G27" s="18">
-        <v>1230000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F28" s="18">
-        <v>49200</v>
+        <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>1230000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>49200</v>
+        <v>15748</v>
       </c>
       <c r="G29" s="18">
-        <v>1230000</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>49200</v>
@@ -1447,18 +1468,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>49200</v>
@@ -1470,18 +1491,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F32" s="18">
         <v>49200</v>
@@ -1493,18 +1514,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
         <v>49200</v>
@@ -1516,18 +1537,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>49200</v>
@@ -1539,18 +1560,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>49200</v>
@@ -1562,18 +1583,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>49200</v>
@@ -1585,18 +1606,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>49200</v>
@@ -1608,18 +1629,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>49200</v>
@@ -1631,18 +1652,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>49200</v>
@@ -1654,18 +1675,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>49200</v>
@@ -1677,18 +1698,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>49200</v>
@@ -1700,18 +1721,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>49200</v>
@@ -1723,57 +1744,287 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="22" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="24">
-        <v>49200</v>
-      </c>
-      <c r="G43" s="24">
-        <v>1230000</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="F46" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="18">
+        <v>49200</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1230000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="24">
+        <v>32800</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1230000</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H58:J58"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009460005.xlsx
+++ b/Data/EC/NIT-9009460005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{687941E7-91EA-4B0E-B886-591E120A0D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09265931-615D-43CD-ADC9-E252FBDA390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70FF32D1-1416-4EDA-B9DD-E7D4B86090C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0BA64A3-1085-45FD-A7C9-B30E7F8A275D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,127 +74,112 @@
     <t>2103</t>
   </si>
   <si>
-    <t>73129242</t>
-  </si>
-  <si>
-    <t>ALIRIO TORRES BERDUGO</t>
+    <t>73007464</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS VILLALBA VIZCAINO</t>
+  </si>
+  <si>
+    <t>1143348656</t>
+  </si>
+  <si>
+    <t>MANUEL YESID ALEMAN MENDOZA</t>
+  </si>
+  <si>
+    <t>1047428298</t>
+  </si>
+  <si>
+    <t>ALVARO ANDRES MIRANDA PADILLA</t>
+  </si>
+  <si>
+    <t>1143398514</t>
+  </si>
+  <si>
+    <t>HERNAN JOSE JIMENEZ MONTERO</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>737164118111973</t>
+  </si>
+  <si>
+    <t>GUSTAVO ENRIQUE JIMÃ?NEZ MI</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
   </si>
   <si>
     <t>2505</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>73007464</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS VILLALBA VIZCAINO</t>
-  </si>
-  <si>
-    <t>1143348656</t>
-  </si>
-  <si>
-    <t>MANUEL YESID ALEMAN MENDOZA</t>
-  </si>
-  <si>
-    <t>1143364340</t>
-  </si>
-  <si>
-    <t>ALBERTO JOSE SUAREZ PADILLA</t>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1047428298</t>
-  </si>
-  <si>
-    <t>ALVARO ANDRES MIRANDA PADILLA</t>
-  </si>
-  <si>
-    <t>1047494448</t>
-  </si>
-  <si>
-    <t>REMBERTO JOSE MEDRANO ATENCIO</t>
-  </si>
-  <si>
-    <t>1143398514</t>
-  </si>
-  <si>
-    <t>HERNAN JOSE JIMENEZ MONTERO</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>737164118111973</t>
-  </si>
-  <si>
-    <t>GUSTAVO ENRIQUE JIMÃ?NEZ MI</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -238,7 +223,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,7 +278,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +493,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +537,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +593,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AECFF1-26D1-0025-5B21-41CD15336514}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF072CB-3AFD-C5EF-D7C2-1FDE2B8F0A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,32 +944,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF1898-9F3C-42EA-8D91-644F8401589B}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395D4DBC-BE57-497B-B45D-D7A12CD96225}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -993,7 +978,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1004,7 +989,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1015,7 +1000,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1026,10 +1011,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1042,8 +1027,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1058,15 +1043,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1782780</v>
+        <v>1292340</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1074,27 +1059,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1114,16 +1099,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1131,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1157,42 +1142,42 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>15748</v>
       </c>
       <c r="G17" s="18">
-        <v>1800000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>15748</v>
       </c>
       <c r="G18" s="18">
-        <v>1800000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1200,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1232,231 +1217,231 @@
         <v>15748</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>66000</v>
+        <v>32800</v>
       </c>
       <c r="G21" s="18">
-        <v>1800000</v>
+        <v>1230000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>66000</v>
+        <v>49200</v>
       </c>
       <c r="G22" s="18">
-        <v>1800000</v>
+        <v>1230000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
-        <v>66000</v>
+        <v>49200</v>
       </c>
       <c r="G23" s="18">
-        <v>1800000</v>
+        <v>1230000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>49200</v>
       </c>
       <c r="G24" s="18">
-        <v>1115000</v>
+        <v>1230000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
-        <v>56940</v>
+        <v>49200</v>
       </c>
       <c r="G25" s="18">
-        <v>1115000</v>
+        <v>1230000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>15748</v>
+        <v>49200</v>
       </c>
       <c r="G26" s="18">
-        <v>1115000</v>
+        <v>1230000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
-        <v>56940</v>
+        <v>49200</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>1230000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
-        <v>56940</v>
+        <v>49200</v>
       </c>
       <c r="G28" s="18">
-        <v>1423500</v>
+        <v>1230000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
-        <v>15748</v>
+        <v>49200</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>1230000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F30" s="18">
         <v>49200</v>
@@ -1468,18 +1453,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
         <v>49200</v>
@@ -1491,18 +1476,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
         <v>49200</v>
@@ -1514,18 +1499,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
         <v>49200</v>
@@ -1537,18 +1522,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F34" s="18">
         <v>49200</v>
@@ -1560,18 +1545,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
         <v>49200</v>
@@ -1583,18 +1568,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" s="18">
         <v>49200</v>
@@ -1606,18 +1591,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F37" s="18">
         <v>49200</v>
@@ -1629,18 +1614,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F38" s="18">
         <v>49200</v>
@@ -1652,18 +1637,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F39" s="18">
         <v>49200</v>
@@ -1675,18 +1660,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F40" s="18">
         <v>49200</v>
@@ -1698,18 +1683,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F41" s="18">
         <v>49200</v>
@@ -1721,18 +1706,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F42" s="18">
         <v>49200</v>
@@ -1744,18 +1729,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F43" s="18">
         <v>49200</v>
@@ -1767,18 +1752,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F44" s="18">
         <v>49200</v>
@@ -1790,241 +1775,57 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="16" t="s">
+    <row r="45" spans="2:10">
+      <c r="B45" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="24">
-        <v>32800</v>
-      </c>
-      <c r="G53" s="24">
-        <v>1230000</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="F45" s="24">
+        <v>49200</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1230000</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009460005.xlsx
+++ b/Data/EC/NIT-9009460005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09265931-615D-43CD-ADC9-E252FBDA390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC4E8C2-EB99-4DEA-A615-2BBB919DD0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0BA64A3-1085-45FD-A7C9-B30E7F8A275D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43B4199A-F430-4728-931B-B158CA9B6D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -223,7 +226,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -293,7 +294,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,29 +490,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,19 +531,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF072CB-3AFD-C5EF-D7C2-1FDE2B8F0A6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0752E082-46AA-96CD-5D1D-7752BA1749C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,80 +953,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395D4DBC-BE57-497B-B45D-D7A12CD96225}">
-  <dimension ref="B2:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A03181A-21D6-4FE1-9DA3-2434DA0F03F2}">
+  <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1027,13 +1036,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009460005</v>
       </c>
@@ -1043,15 +1052,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1292340</v>
+        <v>1341540</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1059,27 +1068,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1099,16 +1108,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1118,20 +1127,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>15748</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,20 +1150,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>15748</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1164,20 +1173,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>15748</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>908526</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1187,20 +1196,20 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>15748</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>908526</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1210,20 +1219,20 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>15748</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>908526</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -1233,20 +1242,20 @@
       <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>32800</v>
       </c>
-      <c r="G21" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="G21" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
@@ -1256,20 +1265,20 @@
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
@@ -1279,20 +1288,20 @@
       <c r="D23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
@@ -1302,20 +1311,20 @@
       <c r="D24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>20</v>
       </c>
@@ -1325,20 +1334,20 @@
       <c r="D25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>20</v>
       </c>
@@ -1348,20 +1357,20 @@
       <c r="D26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
@@ -1371,20 +1380,20 @@
       <c r="D27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>20</v>
       </c>
@@ -1394,20 +1403,20 @@
       <c r="D28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>20</v>
       </c>
@@ -1417,20 +1426,20 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>20</v>
       </c>
@@ -1440,20 +1449,20 @@
       <c r="D30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>20</v>
       </c>
@@ -1463,20 +1472,20 @@
       <c r="D31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>20</v>
       </c>
@@ -1486,20 +1495,20 @@
       <c r="D32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>20</v>
       </c>
@@ -1509,20 +1518,20 @@
       <c r="D33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>20</v>
       </c>
@@ -1532,20 +1541,20 @@
       <c r="D34" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>20</v>
       </c>
@@ -1555,20 +1564,20 @@
       <c r="D35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>20</v>
       </c>
@@ -1578,20 +1587,20 @@
       <c r="D36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>20</v>
       </c>
@@ -1601,20 +1610,20 @@
       <c r="D37" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>20</v>
       </c>
@@ -1624,20 +1633,20 @@
       <c r="D38" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>20</v>
       </c>
@@ -1647,20 +1656,20 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
@@ -1670,20 +1679,20 @@
       <c r="D40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>20</v>
       </c>
@@ -1693,20 +1702,20 @@
       <c r="D41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>20</v>
       </c>
@@ -1716,20 +1725,20 @@
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>20</v>
       </c>
@@ -1739,20 +1748,20 @@
       <c r="D43" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
@@ -1762,70 +1771,93 @@
       <c r="D44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="18">
-        <v>49200</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1230000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="22" t="s">
+      <c r="F44" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="24">
-        <v>49200</v>
-      </c>
-      <c r="G45" s="24">
-        <v>1230000</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="H50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="32"/>
+      <c r="F45" s="19">
+        <v>49200</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1230000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="26">
+        <v>49200</v>
+      </c>
+      <c r="G46" s="26">
+        <v>1230000</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="34"/>
       <c r="H51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="H52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H50:J50"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
